--- a/biology/Zoologie/Appendice_uniramé/Appendice_uniramé.xlsx
+++ b/biology/Zoologie/Appendice_uniramé/Appendice_uniramé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appendice_uniram%C3%A9</t>
+          <t>Appendice_uniramé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les arthropodes, un appendice uniramé est un segment ou patte ne comportant qu'une seule partie. Ceci en opposition aux appendices biramés comportant deux parties (ou branches ou rameau). Cette caractéristique est représentative de deux sous-classes :
 les myriapodes
